--- a/public/documents/salaryslips/Salary_Chart.xlsx
+++ b/public/documents/salaryslips/Salary_Chart.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nazim Khan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\e-Care PC\Desktop\techbyharry\techbyharry\public\documents\salaryslips\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DE85B1-DC42-45E1-957F-8698BC02231F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A546C241-ED2A-4B42-A45B-3FD14F9DF26E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nazim Khan</author>
   </authors>
   <commentList>
-    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{B916B97E-0375-4B54-996C-392FFF6CC3C7}">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{7251B979-D2D1-4705-97D9-29FF9206B641}">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{A51674D9-6315-4CD6-B87C-DA634CB1198E}">
+    <comment ref="B4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="0" shapeId="0" xr:uid="{3E46CF8D-EF41-410D-BDB2-8FD6D55244E2}">
+    <comment ref="B6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -92,40 +91,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="D20" authorId="0" shapeId="0" xr:uid="{C6AA63D2-B8CA-4C8E-9D34-D6C59EB2E02B}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{3D77A862-D3A5-4F36-855D-E3918BCCC021}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Employee's  Name</t>
   </si>
@@ -239,23 +210,17 @@
   </si>
   <si>
     <t>GRAND TOTAL</t>
-  </si>
-  <si>
-    <t>AAAAAGT345345SDF</t>
-  </si>
-  <si>
-    <t>BLHPK4578Q</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,14 +251,6 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -304,6 +261,29 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -325,7 +305,7 @@
     </fill>
     <fill>
       <patternFill patternType="gray0625">
-        <bgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -355,27 +335,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,499 +677,490 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B86108C-F715-4EA8-A07A-119048F6E8B4}">
-  <dimension ref="C2:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="20.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="4" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C3" s="2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="5">
         <v>502462</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3">
+      <c r="D2" s="6">
         <v>19901</v>
       </c>
-      <c r="G3" s="3">
+      <c r="E2" s="6">
         <v>4979</v>
       </c>
-      <c r="H3" s="3">
+      <c r="F2" s="6">
         <v>4571</v>
       </c>
-      <c r="I3" s="3">
+      <c r="G2" s="6">
         <v>428</v>
       </c>
-      <c r="J3" s="3">
+      <c r="H2" s="6">
         <v>457</v>
       </c>
-      <c r="K3" s="3">
+      <c r="I2" s="6">
         <v>30336</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C4" s="2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="5">
         <v>502463</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="3">
+      <c r="D3" s="6">
         <v>19926</v>
       </c>
-      <c r="G4" s="3">
+      <c r="E3" s="6">
         <v>4031</v>
       </c>
-      <c r="H4" s="3">
+      <c r="F3" s="6">
         <v>4305</v>
       </c>
-      <c r="I4" s="3">
+      <c r="G3" s="6">
         <v>441</v>
       </c>
-      <c r="J4" s="3">
+      <c r="H3" s="6">
         <v>413</v>
       </c>
-      <c r="K4" s="3">
+      <c r="I3" s="6">
         <v>29116</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C5" s="2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="5">
         <v>502464</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="3">
+      <c r="D4" s="6">
         <v>19731</v>
       </c>
-      <c r="G5" s="3">
+      <c r="E4" s="6">
         <v>4344</v>
       </c>
-      <c r="H5" s="3">
+      <c r="F4" s="6">
         <v>4891</v>
       </c>
-      <c r="I5" s="3">
+      <c r="G4" s="6">
         <v>446</v>
       </c>
-      <c r="J5" s="3">
+      <c r="H4" s="6">
         <v>454</v>
       </c>
-      <c r="K5" s="3">
+      <c r="I4" s="6">
         <v>29866</v>
       </c>
     </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C6" s="2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="5">
         <v>502465</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="3">
+      <c r="D5" s="6">
         <v>19880</v>
       </c>
-      <c r="G6" s="3">
+      <c r="E5" s="6">
         <v>4634</v>
       </c>
-      <c r="H6" s="3">
+      <c r="F5" s="6">
         <v>4375</v>
       </c>
-      <c r="I6" s="3">
+      <c r="G5" s="6">
         <v>401</v>
       </c>
-      <c r="J6" s="3">
+      <c r="H5" s="6">
         <v>458</v>
       </c>
-      <c r="K6" s="3">
+      <c r="I5" s="6">
         <v>29748</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C7" s="2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="5">
         <v>502466</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="3">
+      <c r="D6" s="6">
         <v>18897</v>
       </c>
-      <c r="G7" s="3">
+      <c r="E6" s="6">
         <v>4947</v>
       </c>
-      <c r="H7" s="3">
+      <c r="F6" s="6">
         <v>4702</v>
       </c>
-      <c r="I7" s="3">
+      <c r="G6" s="6">
         <v>489</v>
       </c>
-      <c r="J7" s="3">
+      <c r="H6" s="6">
         <v>425</v>
       </c>
-      <c r="K7" s="3">
+      <c r="I6" s="6">
         <v>29460</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C8" s="2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="5">
         <v>502467</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="3">
+      <c r="D7" s="6">
         <v>18426</v>
       </c>
-      <c r="G8" s="3">
+      <c r="E7" s="6">
         <v>4056</v>
       </c>
-      <c r="H8" s="3">
+      <c r="F7" s="6">
         <v>4689</v>
       </c>
-      <c r="I8" s="3">
+      <c r="G7" s="6">
         <v>483</v>
       </c>
-      <c r="J8" s="3">
+      <c r="H7" s="6">
         <v>403</v>
       </c>
-      <c r="K8" s="3">
+      <c r="I7" s="6">
         <v>28057</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C9" s="2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="5">
         <v>502468</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3">
+      <c r="D8" s="6">
         <v>19532</v>
       </c>
-      <c r="G9" s="3">
+      <c r="E8" s="6">
         <v>4070</v>
       </c>
-      <c r="H9" s="3">
+      <c r="F8" s="6">
         <v>4726</v>
       </c>
-      <c r="I9" s="3">
+      <c r="G8" s="6">
         <v>416</v>
       </c>
-      <c r="J9" s="3">
+      <c r="H8" s="6">
         <v>429</v>
       </c>
-      <c r="K9" s="3">
+      <c r="I8" s="6">
         <v>29173</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C10" s="2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="5">
         <v>502469</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="3">
+      <c r="D9" s="6">
         <v>19250</v>
       </c>
-      <c r="G10" s="3">
+      <c r="E9" s="6">
         <v>4152</v>
       </c>
-      <c r="H10" s="3">
+      <c r="F9" s="6">
         <v>4337</v>
       </c>
-      <c r="I10" s="3">
+      <c r="G9" s="6">
         <v>458</v>
       </c>
-      <c r="J10" s="3">
+      <c r="H9" s="6">
         <v>439</v>
       </c>
-      <c r="K10" s="3">
+      <c r="I9" s="6">
         <v>28636</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C11" s="2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="5">
         <v>502470</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="C10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="3">
+      <c r="D10" s="6">
         <v>19421</v>
       </c>
-      <c r="G11" s="3">
+      <c r="E10" s="6">
         <v>4543</v>
       </c>
-      <c r="H11" s="3">
+      <c r="F10" s="6">
         <v>4599</v>
       </c>
-      <c r="I11" s="3">
+      <c r="G10" s="6">
         <v>402</v>
       </c>
-      <c r="J11" s="3">
+      <c r="H10" s="6">
         <v>453</v>
       </c>
-      <c r="K11" s="3">
+      <c r="I10" s="6">
         <v>29418</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C12" s="2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="5">
         <v>502471</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="C11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="3">
+      <c r="D11" s="6">
         <v>18481</v>
       </c>
-      <c r="G12" s="3">
+      <c r="E11" s="6">
         <v>4451</v>
       </c>
-      <c r="H12" s="3">
+      <c r="F11" s="6">
         <v>4288</v>
       </c>
-      <c r="I12" s="3">
+      <c r="G11" s="6">
         <v>461</v>
       </c>
-      <c r="J12" s="3">
+      <c r="H11" s="6">
         <v>465</v>
       </c>
-      <c r="K12" s="3">
+      <c r="I11" s="6">
         <v>28146</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C13" s="2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="5">
         <v>502472</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="C12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="3">
+      <c r="D12" s="6">
         <v>19272</v>
       </c>
-      <c r="G13" s="3">
+      <c r="E12" s="6">
         <v>4400</v>
       </c>
-      <c r="H13" s="3">
+      <c r="F12" s="6">
         <v>4099</v>
       </c>
-      <c r="I13" s="3">
+      <c r="G12" s="6">
         <v>470</v>
       </c>
-      <c r="J13" s="3">
+      <c r="H12" s="6">
         <v>408</v>
       </c>
-      <c r="K13" s="3">
+      <c r="I12" s="6">
         <v>28649</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C14" s="2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="5">
         <v>502473</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="C13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="3">
+      <c r="D13" s="6">
         <v>18335</v>
       </c>
-      <c r="G14" s="3">
+      <c r="E13" s="6">
         <v>4023</v>
       </c>
-      <c r="H14" s="3">
+      <c r="F13" s="6">
         <v>4305</v>
       </c>
-      <c r="I14" s="3">
+      <c r="G13" s="6">
         <v>491</v>
       </c>
-      <c r="J14" s="3">
+      <c r="H13" s="6">
         <v>443</v>
       </c>
-      <c r="K14" s="3">
+      <c r="I13" s="6">
         <v>27597</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C15" s="2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="5">
         <v>502474</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="3">
+      <c r="D14" s="6">
         <v>18178</v>
       </c>
-      <c r="G15" s="3">
+      <c r="E14" s="6">
         <v>4191</v>
       </c>
-      <c r="H15" s="3">
+      <c r="F14" s="6">
         <v>4310</v>
       </c>
-      <c r="I15" s="3">
+      <c r="G14" s="6">
         <v>473</v>
       </c>
-      <c r="J15" s="3">
+      <c r="H14" s="6">
         <v>435</v>
       </c>
-      <c r="K15" s="3">
+      <c r="I14" s="6">
         <v>27587</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C16" s="2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="5">
         <v>502475</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="C15" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="3">
+      <c r="D15" s="6">
         <v>19135</v>
       </c>
-      <c r="G16" s="3">
+      <c r="E15" s="6">
         <v>4786</v>
       </c>
-      <c r="H16" s="3">
+      <c r="F15" s="6">
         <v>4833</v>
       </c>
-      <c r="I16" s="3">
+      <c r="G15" s="6">
         <v>402</v>
       </c>
-      <c r="J16" s="3">
+      <c r="H15" s="6">
         <v>431</v>
       </c>
-      <c r="K16" s="3">
+      <c r="I15" s="6">
         <v>29587</v>
       </c>
     </row>
-    <row r="17" spans="3:11" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+    <row r="16" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6">
-        <f>SUM(F3:F16)</f>
+      <c r="C16" s="4"/>
+      <c r="D16" s="7">
+        <f>SUM(D2:D15)</f>
         <v>268365</v>
       </c>
-      <c r="G17" s="6">
-        <f t="shared" ref="G17:K17" si="0">SUM(G3:G16)</f>
+      <c r="E16" s="7">
+        <f t="shared" ref="E16:I16" si="0">SUM(E2:E15)</f>
         <v>61607</v>
       </c>
-      <c r="H17" s="6">
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>63030</v>
       </c>
-      <c r="I17" s="6">
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>6261</v>
       </c>
-      <c r="J17" s="6">
+      <c r="H16" s="7">
         <f t="shared" si="0"/>
         <v>6113</v>
       </c>
-      <c r="K17" s="6">
+      <c r="I16" s="7">
         <f t="shared" si="0"/>
         <v>405376</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="D21" s="1" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
